--- a/Resultados/Resultados CP.xlsx
+++ b/Resultados/Resultados CP.xlsx
@@ -8,6 +8,9 @@
   </bookViews>
   <sheets>
     <sheet name="Capacitor de potência" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Resistor" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Fusível" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="Lista técnica" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B50"/>
+  <dimension ref="A1:B58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -445,7 +448,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1.290120601034126</v>
+        <v>1.29181469978333</v>
       </c>
     </row>
     <row r="3">
@@ -455,7 +458,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>4015.254935590118</v>
+        <v>287.1520829900599</v>
       </c>
     </row>
     <row r="4">
@@ -465,7 +468,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1019.87475363989</v>
+        <v>72.93662907947522</v>
       </c>
     </row>
     <row r="5">
@@ -475,7 +478,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.210628954379321</v>
+        <v>1.210867449431611</v>
       </c>
     </row>
     <row r="6">
@@ -485,7 +488,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>372.4562868887126</v>
+        <v>32.32640369778712</v>
       </c>
     </row>
     <row r="7">
@@ -495,7 +498,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>21.15472301025095</v>
+        <v>14.52582504651573</v>
       </c>
     </row>
     <row r="8">
@@ -505,7 +508,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9">
@@ -515,7 +518,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2.52</v>
+        <v>0.2276785714285714</v>
       </c>
     </row>
     <row r="10">
@@ -525,7 +528,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>64.008</v>
+        <v>5.783035714285714</v>
       </c>
     </row>
     <row r="11">
@@ -545,7 +548,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>33.49135608778721</v>
+        <v>2.392239720556229</v>
       </c>
     </row>
     <row r="13">
@@ -555,7 +558,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.24</v>
+        <v>2.72</v>
       </c>
     </row>
     <row r="14">
@@ -575,7 +578,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>149.9018090119762</v>
+        <v>113.9848686990138</v>
       </c>
     </row>
     <row r="16">
@@ -615,7 +618,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2.629566333610462</v>
+        <v>0.1942400258754843</v>
       </c>
     </row>
     <row r="20">
@@ -635,7 +638,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>1.728265073627393</v>
+        <v>0.1297832134545149</v>
       </c>
     </row>
     <row r="22">
@@ -645,7 +648,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9013012599830689</v>
+        <v>0.06445681242096939</v>
       </c>
     </row>
     <row r="23">
@@ -655,7 +658,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>10.51826533444185</v>
+        <v>10.87744144902712</v>
       </c>
     </row>
     <row r="24">
@@ -675,7 +678,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6.913060294509574</v>
+        <v>7.267859953452836</v>
       </c>
     </row>
     <row r="26">
@@ -685,7 +688,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>3.605205039932275</v>
+        <v>3.609581495574286</v>
       </c>
     </row>
     <row r="27">
@@ -695,7 +698,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>54.48313412778188</v>
+        <v>56.17738890423148</v>
       </c>
     </row>
     <row r="28">
@@ -705,7 +708,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2.114857806132555</v>
+        <v>11.7793485335691</v>
       </c>
     </row>
     <row r="29">
@@ -715,7 +718,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1.697939758017433</v>
+        <v>2.038702123134017</v>
       </c>
     </row>
     <row r="30">
@@ -725,7 +728,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31">
@@ -761,7 +764,7 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>32- Gruoos série</t>
+          <t>32- Grupos série</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -775,7 +778,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="36">
@@ -881,7 +884,7 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>266</v>
+        <v>324</v>
       </c>
     </row>
     <row r="46">
@@ -892,7 +895,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>3430021H86</t>
+          <t>3430020H50</t>
         </is>
       </c>
     </row>
@@ -904,7 +907,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>&lt;PySide2.QtGui.QTextDocument(0x24e45bba5e0) at 0x0000024E36F9A280&gt;</t>
+          <t>320mm x 324mm</t>
         </is>
       </c>
     </row>
@@ -915,7 +918,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="49">
@@ -935,7 +938,1179 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>326</v>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
+        <is>
+          <t>Largura da caixa</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="inlineStr">
+        <is>
+          <t>Corrente</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>25.12562814070352</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="inlineStr">
+        <is>
+          <t>Gauge Al</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>0.0002</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="inlineStr">
+        <is>
+          <t>Conexão dos resistores</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>6 x 0.96MΩ</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="inlineStr">
+        <is>
+          <t>Código Capacitor</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="inlineStr">
+        <is>
+          <t>Caminhos de solda</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0.5460111</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="inlineStr">
+        <is>
+          <t>Voltas de papel Bobina Envoltória</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="inlineStr">
+        <is>
+          <t>Número de Buchas</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:I4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Número de resitores em série</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Resistor usado</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Restência total</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Max WATTS com 110% Vn</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>110% da Resistência total</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>90% da Resistência total</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Resistor máximo permitido</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Formação</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>6</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.76</v>
+      </c>
+      <c r="E2" t="n">
+        <v>14.01088011695907</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6.336</v>
+      </c>
+      <c r="G2" t="n">
+        <v>5.184</v>
+      </c>
+      <c r="H2" t="n">
+        <v>6.299725638800916</v>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>6 x 0.96MΩ</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.850000000000001</v>
+      </c>
+      <c r="E3" t="n">
+        <v>20.96173233082706</v>
+      </c>
+      <c r="F3" t="n">
+        <v>4.235000000000001</v>
+      </c>
+      <c r="G3" t="n">
+        <v>3.465</v>
+      </c>
+      <c r="H3" t="n">
+        <v>6.299725638800916</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>7 x 0.55MΩ</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>11</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="E4" t="n">
+        <v>31.89828832951946</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.783</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2.277</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6.299725638800916</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>11 x 0.23MΩ</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Id</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Diam</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>I1S</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>IG</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>W0</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>WM</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>IF/I1S</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>IF/IG</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>WT/WM</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>TGDS</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>a1</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>a2</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>a3</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>a4</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="D2" t="n">
+        <v>38</v>
+      </c>
+      <c r="E2" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>69</v>
+      </c>
+      <c r="G2" t="n">
+        <v>35.88039215686275</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0.7629239313978801</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1.183310587474263</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.8400962150695708</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0.04878205554956144</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0.7629239313978801</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1.397935380692977</v>
+      </c>
+      <c r="N2" t="n">
+        <v>35.88039215686275</v>
+      </c>
+      <c r="O2" t="n">
+        <v>10.72470940855171</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:F28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Item</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Código</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Descrição</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Quantidade</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Unidade</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1.0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0    
+Name: Código Capacitor, dtype: object</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Capacitor</t>
+        </is>
+      </c>
+      <c r="E2" t="n">
+        <v>1</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>pç</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1.1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>B14008</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>SC Óleo</t>
+        </is>
+      </c>
+      <c r="E3" t="n">
+        <v>6.085077014016001</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1.2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>3440105H64</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Pintura Cod. SC</t>
+        </is>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>pç</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2.0</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>SG Grupo de montagem</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>1</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>pç</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2.1</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>3440105H64</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>SC Caixa Capacitor</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>pç</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2.2</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>3440390H17</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>SC Tampa Capacitor</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>pç</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2.3</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Código nâo encontrado</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Conjunto de resistores de descarga 6 x 0.96MΩ</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>pç</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2.4</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>4430521H01</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Cartão Duplo</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>pç</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2.5</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>B02023A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Fio de Solda 60Sn x 40Pb</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2.6</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>BE07130</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Bobina Envoltória</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>0.4949773030485207</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2.7</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Usar Placa Superior de Isolação</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cantoneira de Isolação </t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>pç</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2.8</t>
+        </is>
+      </c>
+      <c r="C13" t="b">
+        <v>0</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Placa Superior de Isolação</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>pç</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2.9</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>SCSCNM</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>SC Solda Cordoalha no Núcleo</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>pç</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>TU70250</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Tubo de Papel</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>pç</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>SCIC9</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>SC Isolação da Cordoalha</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>369.8965401897281</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>B02061C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Cordoalha</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>823.8965401897281</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>3.0</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>N0    
+Name: Código Capacitor, dtype: object</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>SC Pacote com Caixa</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>1</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>pç</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>3.1</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>3430008H10</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Calço Lateral 3 x 112</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>2</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>pç</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>3.2</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>3430020H50</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Placa lateral 324 x 320</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>1</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>pç</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>3.2.1</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>3430020H50</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Placa lateral 324 x 140</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>2</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>pç</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>3.3</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>4430003H12</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Divisor moldado 153 mm</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>12</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>pç</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>3.4</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>B02021A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Solda em Barra 62Snx38Zn</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>0.27300555</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>3.5</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Não Utiliza</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Fita de Cobre 0,5 x 12mm</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>4.0</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>SC</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Seção Capacitiva</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>56</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>pç</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>4.1</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>B02007D08</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Folha de Aluminio</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>0.06445681242096939</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>4.2</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>B03018AHD</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Filme Polipropileno 55</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>0.06207023252172453</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>4.3</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>B03018AID</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Filme Polipropileno 60</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>0.06771298093279041</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>kg</t>
+        </is>
       </c>
     </row>
   </sheetData>
